--- a/src/template/template_import_teacher.xlsx
+++ b/src/template/template_import_teacher.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DUAN\ELEARNING\futurekey-be\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C7228-6DA7-4A71-9022-38D7769FF360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47559482-5E83-411E-8B80-6F7641918FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9ABC7949-785D-4C7F-B718-95A960077CE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>DANH SÁCH NGƯỜI DÙNG HỆ THỐNG</t>
-  </si>
-  <si>
-    <t>Tên trường</t>
-  </si>
-  <si>
-    <t>THPT Phạm Văn Đồng</t>
   </si>
   <si>
     <t>exampleschool</t>
@@ -488,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64440948-56DD-4990-83C5-47C2676D2EBB}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
@@ -503,12 +497,11 @@
     <col min="5" max="5" width="16.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -519,7 +512,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -542,27 +535,24 @@
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>9</v>
@@ -570,10 +560,7 @@
       <c r="G3" s="4">
         <v>123456</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
